--- a/shared/ojb-resources-common/src/main/resources/ssp/Disposition_Error_Reporting/artifacts/service_model/information_model/IEPD/documentation/DispositionErrorReportingMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Disposition_Error_Reporting/artifacts/service_model/information_model/IEPD/documentation/DispositionErrorReportingMapping.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mowest/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B064FD33-1237-B142-A788-B1C2F8FD893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B82443-9DD1-4543-87F1-6F9CE6580DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{1C2AE6D2-8E73-1242-A2F3-03639084C547}"/>
+    <workbookView xWindow="31260" yWindow="1120" windowWidth="33380" windowHeight="13500" activeTab="1" xr2:uid="{1C2AE6D2-8E73-1242-A2F3-03639084C547}"/>
   </bookViews>
   <sheets>
     <sheet name="CMIS Error Mapping" sheetId="2" r:id="rId1"/>
+    <sheet name="CCH Error Mapping" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="171">
   <si>
     <t xml:space="preserve"> [int</t>
   </si>
@@ -366,13 +367,233 @@
   </si>
   <si>
     <t>ext:ErrorReportEndDate</t>
+  </si>
+  <si>
+    <t>CMIS Return Element Name</t>
+  </si>
+  <si>
+    <t>der-ext:DispositionErrorID</t>
+  </si>
+  <si>
+    <t>der-ext:DispositionErrorBatchSubmission/der-ext:DispositionErrorID</t>
+  </si>
+  <si>
+    <t>[int</t>
+  </si>
+  <si>
+    <t>IDENTITY(1,1) NOT NULL</t>
+  </si>
+  <si>
+    <t>ParishID</t>
+  </si>
+  <si>
+    <t>der-ext:ParishCode</t>
+  </si>
+  <si>
+    <t>ext-der:ParishCode</t>
+  </si>
+  <si>
+    <t>ncDocumentRecipient</t>
+  </si>
+  <si>
+    <t>nc:DocumentRecipient/nc:EntityOrganization/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>[nvarchar</t>
+  </si>
+  <si>
+    <t>(20), NULL</t>
+  </si>
+  <si>
+    <t>ATN_ORI</t>
+  </si>
+  <si>
+    <r>
+      <t>j:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RapSheetCycleTrackingIdentificationID</t>
+    </r>
+  </si>
+  <si>
+    <t>(4), NULL</t>
+  </si>
+  <si>
+    <t>No fields seem to match the ATN fields provided in the response, for all test files these fields are empty as well</t>
+  </si>
+  <si>
+    <t>ATN_AFISDev</t>
+  </si>
+  <si>
+    <t>(1), NULL</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>ATN_Year</t>
+  </si>
+  <si>
+    <t>[numeric</t>
+  </si>
+  <si>
+    <t>ATN_ArrSeqNbr</t>
+  </si>
+  <si>
+    <t>ChgSeqNbr</t>
+  </si>
+  <si>
+    <r>
+      <t>j:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChargeSequenceID</t>
+    </r>
+  </si>
+  <si>
+    <t>Unsure what Charge Sequence Number can match to (j:ChargeSequenceID)</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>j:PersonStateFingerprintIdentification</t>
+  </si>
+  <si>
+    <t>PersonStateFingerprintIdentification</t>
+  </si>
+  <si>
+    <t>(10), NULL</t>
+  </si>
+  <si>
+    <t>nc:PersonStateIdentification/ID</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <r>
+      <t>nc:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PersonBirthDate</t>
+    </r>
+  </si>
+  <si>
+    <t>[datetime</t>
+  </si>
+  <si>
+    <t>nc:PersonBirthDate</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>(25), NULL</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>(15), NULL</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeStatuteCode</t>
+  </si>
+  <si>
+    <t>ArrestDate</t>
+  </si>
+  <si>
+    <t>j:ActivityArrestAssociation</t>
+  </si>
+  <si>
+    <t>j:Arrest/ActivityDate/Date</t>
+  </si>
+  <si>
+    <t>Arrest/ActivityArrestAssociation/ActivityDate/Date</t>
+  </si>
+  <si>
+    <t>DispositionDate</t>
+  </si>
+  <si>
+    <t>nc:DispositionDate</t>
+  </si>
+  <si>
+    <t>DispositionCode</t>
+  </si>
+  <si>
+    <t>der-ext:ErrorCodeText</t>
+  </si>
+  <si>
+    <t>(2), NULL</t>
+  </si>
+  <si>
+    <t>DPSProcessDate</t>
+  </si>
+  <si>
+    <t>nc:DocumentIssueDate</t>
+  </si>
+  <si>
+    <t>nc:DocumentIssueDate/nc:DateTime</t>
+  </si>
+  <si>
+    <t>nc:DocumentIssueDate/Date/DateTime</t>
+  </si>
+  <si>
+    <t>DPSMessage</t>
+  </si>
+  <si>
+    <t>der-ext:ErrorDescriptionText</t>
+  </si>
+  <si>
+    <t>(31), NULL</t>
+  </si>
+  <si>
+    <t>CmisID</t>
+  </si>
+  <si>
+    <t>der-ext:RecipientAgencyDocumentID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,6 +605,50 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -410,16 +675,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8A92A5-BCF9-AC40-8D7F-838D794B2694}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +1044,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>35</v>
       </c>
       <c r="C1" t="s">
@@ -799,10 +1073,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G2" t="s">
@@ -813,13 +1087,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G3" t="s">
@@ -836,13 +1110,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G4" t="s">
@@ -853,13 +1127,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
@@ -870,13 +1144,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G6" t="s">
@@ -887,13 +1161,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G7" t="s">
@@ -904,7 +1178,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
       <c r="C8" t="s">
@@ -921,7 +1195,6 @@
       <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="D9" t="s">
         <v>37</v>
       </c>
@@ -930,7 +1203,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="s">
@@ -956,7 +1229,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
@@ -985,7 +1258,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>93</v>
       </c>
       <c r="C12" t="s">
@@ -999,7 +1272,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -1028,7 +1301,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
       <c r="C14" t="s">
@@ -1051,7 +1324,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
@@ -1074,7 +1347,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
@@ -1091,7 +1364,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
@@ -1108,7 +1381,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
       <c r="C18" t="s">
@@ -1131,7 +1404,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
@@ -1157,7 +1430,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
@@ -1174,7 +1447,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
@@ -1239,4 +1512,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B477EE-730A-B94D-9CB6-DD4358D6A01D}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="108.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="https://tools.niem.gov/niemtools/ssgt/SSGT-GetProperty.iepd?propertyKey=o6-16e" xr:uid="{1AD9456F-C844-F545-B350-93551D632820}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>